--- a/biology/Botanique/Blaufränkisch/Blaufränkisch.xlsx
+++ b/biology/Botanique/Blaufränkisch/Blaufränkisch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blaufr%C3%A4nkisch</t>
+          <t>Blaufränkisch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La blaufränkisch est un cépage de vigne présent en Autriche où il représente environ 5 % de l'encépagement, principalement dans la région du Mittelburgenland. Il est également présent en Hongrie sous le nom de kékfrankos, en Croatie, en Slovénie, en Tchéquie (dans la région de Moravie), et en Slovaquie sous le nom de frankovka, en Allemagne sous les noms de Lemberger ou Limberger et enfin en Italie sous le nom de frankonia. En Belgique, il est autorisé pour l'AOC flamande Hageland [1].
+La blaufränkisch est un cépage de vigne présent en Autriche où il représente environ 5 % de l'encépagement, principalement dans la région du Mittelburgenland. Il est également présent en Hongrie sous le nom de kékfrankos, en Croatie, en Slovénie, en Tchéquie (dans la région de Moravie), et en Slovaquie sous le nom de frankovka, en Allemagne sous les noms de Lemberger ou Limberger et enfin en Italie sous le nom de frankonia. En Belgique, il est autorisé pour l'AOC flamande Hageland .
 Il donne un vin fruité et plein de fraîcheur. Aujourd'hui, on peut faire du grand vin avec ce cépage, quelques exemples sont le Domaine Krutzler (dans le Südburgenland) ou Paul Kerschbaum et Franz Weninger (Mittelburgenland). Ces vins sont par ailleurs fréquemment récompensés sur le plan international.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blaufr%C3%A4nkisch</t>
+          <t>Blaufränkisch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La blaufränkisch est connue sous les noms de[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La blaufränkisch est connue sous les noms de :
 Blaue Fraenkische
 Blauer Limberger
 Blaufraenkische
